--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl21b-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl21b-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.134289</v>
+        <v>0.004739</v>
       </c>
       <c r="H2">
-        <v>0.402867</v>
+        <v>0.014217</v>
       </c>
       <c r="I2">
-        <v>0.3678949098679525</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="J2">
-        <v>0.3678949098679524</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,22 +561,22 @@
         <v>0.155824</v>
       </c>
       <c r="O2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P2">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q2">
-        <v>0.006975149712000001</v>
+        <v>0.0002461499786666667</v>
       </c>
       <c r="R2">
-        <v>0.06277634740800001</v>
+        <v>0.002215349808</v>
       </c>
       <c r="S2">
-        <v>0.01393896630934235</v>
+        <v>0.0007178152968418128</v>
       </c>
       <c r="T2">
-        <v>0.01393896630934235</v>
+        <v>0.0007178152968418129</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.134289</v>
+        <v>0.004739</v>
       </c>
       <c r="H3">
-        <v>0.402867</v>
+        <v>0.014217</v>
       </c>
       <c r="I3">
-        <v>0.3678949098679525</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="J3">
-        <v>0.3678949098679524</v>
+        <v>0.02588570741885795</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N3">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O3">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P3">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q3">
-        <v>0.177121864203</v>
+        <v>0.008630459863666668</v>
       </c>
       <c r="R3">
-        <v>1.594096777827</v>
+        <v>0.077674138773</v>
       </c>
       <c r="S3">
-        <v>0.3539559435586101</v>
+        <v>0.02516789212201613</v>
       </c>
       <c r="T3">
-        <v>0.3539559435586101</v>
+        <v>0.02516789212201614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +646,31 @@
         <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.230731</v>
+        <v>0.134289</v>
       </c>
       <c r="H4">
-        <v>0.6921930000000001</v>
+        <v>0.402867</v>
       </c>
       <c r="I4">
-        <v>0.6321050901320476</v>
+        <v>0.733523056250478</v>
       </c>
       <c r="J4">
-        <v>0.6321050901320475</v>
+        <v>0.733523056250478</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,22 +685,22 @@
         <v>0.155824</v>
       </c>
       <c r="O4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="P4">
-        <v>0.03788844568234288</v>
+        <v>0.02773017886769741</v>
       </c>
       <c r="Q4">
-        <v>0.01198447578133333</v>
+        <v>0.006975149712000001</v>
       </c>
       <c r="R4">
-        <v>0.107860282032</v>
+        <v>0.06277634740800001</v>
       </c>
       <c r="S4">
-        <v>0.02394947937300054</v>
+        <v>0.02034072555340583</v>
       </c>
       <c r="T4">
-        <v>0.02394947937300054</v>
+        <v>0.02034072555340583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +708,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.230731</v>
+        <v>0.134289</v>
       </c>
       <c r="H5">
-        <v>0.6921930000000001</v>
+        <v>0.402867</v>
       </c>
       <c r="I5">
-        <v>0.6321050901320476</v>
+        <v>0.733523056250478</v>
       </c>
       <c r="J5">
-        <v>0.6321050901320475</v>
+        <v>0.733523056250478</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +741,152 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.318960333333333</v>
+        <v>1.821156333333333</v>
       </c>
       <c r="N5">
-        <v>3.956881</v>
+        <v>5.463469</v>
       </c>
       <c r="O5">
-        <v>0.962111554317657</v>
+        <v>0.9722698211323025</v>
       </c>
       <c r="P5">
-        <v>0.9621115543176572</v>
+        <v>0.9722698211323026</v>
       </c>
       <c r="Q5">
-        <v>0.3043250366703333</v>
+        <v>0.2445612628470001</v>
       </c>
       <c r="R5">
-        <v>2.738925330033</v>
+        <v>2.201051365623</v>
       </c>
       <c r="S5">
-        <v>0.608155610759047</v>
+        <v>0.7131823306970722</v>
       </c>
       <c r="T5">
-        <v>0.608155610759047</v>
+        <v>0.7131823306970722</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.04404599999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.132138</v>
+      </c>
+      <c r="I6">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="J6">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.05194133333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.155824</v>
+      </c>
+      <c r="O6">
+        <v>0.02773017886769741</v>
+      </c>
+      <c r="P6">
+        <v>0.02773017886769741</v>
+      </c>
+      <c r="Q6">
+        <v>0.002287807968</v>
+      </c>
+      <c r="R6">
+        <v>0.02059027171199999</v>
+      </c>
+      <c r="S6">
+        <v>0.006671638017449775</v>
+      </c>
+      <c r="T6">
+        <v>0.006671638017449775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.04404599999999999</v>
+      </c>
+      <c r="H7">
+        <v>0.132138</v>
+      </c>
+      <c r="I7">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="J7">
+        <v>0.2405912363306641</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.821156333333333</v>
+      </c>
+      <c r="N7">
+        <v>5.463469</v>
+      </c>
+      <c r="O7">
+        <v>0.9722698211323025</v>
+      </c>
+      <c r="P7">
+        <v>0.9722698211323026</v>
+      </c>
+      <c r="Q7">
+        <v>0.08021465185799999</v>
+      </c>
+      <c r="R7">
+        <v>0.7219318667219998</v>
+      </c>
+      <c r="S7">
+        <v>0.2339195983132143</v>
+      </c>
+      <c r="T7">
+        <v>0.2339195983132143</v>
       </c>
     </row>
   </sheetData>
